--- a/Tech Radar working copy.xlsx
+++ b/Tech Radar working copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itdo/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F5097C7-453F-AB49-8546-698E5B9B1C7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B25D73-51A3-044E-9C06-C370842A0EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{355B779C-EC36-4EAC-A9B7-F6904354746E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{C29389CD-5103-40C8-B117-003B7CB4B0CD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{355B779C-EC36-4EAC-A9B7-F6904354746E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -174,9 +174,6 @@
     <t>GoDog</t>
   </si>
   <si>
-    <t>&lt;p&gt;Cucumber BDD framework for Golang.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>GitHib</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Jenkins Platform</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Cucumber &amp; tomato BDD framework for Golang.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -749,18 +749,18 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="b">
         <v>1</v>
@@ -771,13 +771,13 @@
     </row>
     <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="b">
         <v>1</v>
@@ -788,13 +788,13 @@
     </row>
     <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="b">
         <v>1</v>
@@ -805,13 +805,13 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{355B779C-EC36-4EAC-A9B7-F6904354746E}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:Z958" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
     <customSheetView guid="{C29389CD-5103-40C8-B117-003B7CB4B0CD}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:Z18" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{355B779C-EC36-4EAC-A9B7-F6904354746E}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:Z958" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
